--- a/ressource_list.xlsx
+++ b/ressource_list.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
